--- a/Config/Calibrations/OneFifthBox3DisplacementCals.xlsx
+++ b/Config/Calibrations/OneFifthBox3DisplacementCals.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18195" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="140" windowWidth="19000" windowHeight="18540"/>
   </bookViews>
   <sheets>
     <sheet name="Displacement Cals" sheetId="1" r:id="rId1"/>
     <sheet name="SW Cmd Cals" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -595,21 +600,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="20" thickBot="1">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -621,7 +626,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" thickTop="1">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -641,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>0</v>
       </c>
@@ -661,7 +666,7 @@
         <v>3.6204999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>1</v>
       </c>
@@ -681,7 +686,7 @@
         <v>3.3490000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>2</v>
       </c>
@@ -701,7 +706,7 @@
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>3</v>
       </c>
@@ -721,7 +726,7 @@
         <v>2.8085</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>2</v>
       </c>
@@ -741,7 +746,7 @@
         <v>3.0775000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>1</v>
       </c>
@@ -761,7 +766,7 @@
         <v>3.3540000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>0</v>
       </c>
@@ -781,7 +786,7 @@
         <v>3.6225000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>-1</v>
       </c>
@@ -801,7 +806,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>-2</v>
       </c>
@@ -821,7 +826,7 @@
         <v>4.1715</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>-3</v>
       </c>
@@ -841,7 +846,7 @@
         <v>4.4414999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>-2</v>
       </c>
@@ -861,7 +866,7 @@
         <v>4.1654999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>-1</v>
       </c>
@@ -881,7 +886,7 @@
         <v>3.895</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>0</v>
       </c>
@@ -901,7 +906,7 @@
         <v>3.6240000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -925,7 +930,7 @@
         <v>0.271260819169509</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>2</v>
@@ -941,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
@@ -965,75 +970,75 @@
         <v>0.99998087711289252</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20">
-        <v>-0.26889473684210524</v>
+        <v>-0.27018038721863691</v>
       </c>
       <c r="D20">
-        <v>0.26773623149939174</v>
+        <v>0.26969468103565636</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-0.26820424107142854</v>
+        <v>-0.27215909090909091</v>
       </c>
       <c r="G20">
-        <v>0.26755083133801272</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.27176828870122743</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21">
         <f>C17-C20</f>
-        <v>-4.0263157894736556E-3</v>
+        <v>-2.7406654129419894E-3</v>
       </c>
       <c r="D21">
         <f>D17-D20</f>
-        <v>2.0973626591220262E-3</v>
+        <v>1.389131228574092E-4</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21">
         <f>F17-F20</f>
-        <v>-4.1115484022556381E-3</v>
+        <v>-1.5669856459327169E-4</v>
       </c>
       <c r="G21">
         <f>G17-G20</f>
-        <v>3.7099878314962864E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-5.0746953171842968E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1">
         <f>(C20-C17)/((C17+C20)/2)</f>
-        <v>-1.4862305114381363E-2</v>
+        <v>-1.0092646462870173E-2</v>
       </c>
       <c r="D22" s="1">
         <f>(D20-D17)/((D17+D20)/2)</f>
-        <v>-7.8031264368500081E-3</v>
+        <v>-5.1494288341946833E-4</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="1">
         <f>(F20-F17)/((F17+F20)/2)</f>
-        <v>-1.5213306334306074E-2</v>
+        <v>-5.7559520278735346E-4</v>
       </c>
       <c r="G22" s="1">
         <f>(G20-G17)/((G17+G20)/2)</f>
-        <v>-1.3771000786644999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.8690325227988646E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20" thickBot="1">
       <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1050,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15" thickTop="1">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>2.6234999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>2.4834999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>2.3479999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>2.2145000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>2</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>2.4845000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>0</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>2.6154999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>-1</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>2.7530000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>-2</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>2.8875000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34">
         <v>-3</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>3.0209999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35">
         <v>-2</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>2.887</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36">
         <v>-1</v>
       </c>
@@ -1305,7 +1310,7 @@
         <v>2.754</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37">
         <v>0</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>2.6160000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>0.13428642070194891</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>2</v>
@@ -1365,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -1389,75 +1394,75 @@
         <v>0.99992162147840413</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C41">
-        <v>-0.13434415584415585</v>
+        <v>-0.13653794642857142</v>
       </c>
       <c r="D41">
-        <v>0.13501478873891026</v>
+        <v>0.1362724941836006</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F41">
-        <v>-0.13429232283464571</v>
+        <v>-0.13740625000000001</v>
       </c>
       <c r="G41">
-        <v>0.13519771607008962</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.13849747226772158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C42">
         <f>C38-C41</f>
-        <v>5.8099794941901539E-4</v>
+        <v>2.7747885338345879E-3</v>
       </c>
       <c r="D42">
         <f>D38-D41</f>
-        <v>-6.0505566794541443E-4</v>
+        <v>-1.8627611126357524E-3</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F42">
         <f>F38-F41</f>
-        <v>-1.1557190219640967E-4</v>
+        <v>2.9983552631578925E-3</v>
       </c>
       <c r="G42">
         <f>G38-G41</f>
-        <v>-9.1129536814071876E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-4.2110515657726721E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1">
         <f>(C41-C38)/((C38+C41)/2)</f>
-        <v>4.3340701252547265E-3</v>
+        <v>2.0531092840195372E-2</v>
       </c>
       <c r="D43" s="1">
         <f>(D41-D38)/((D38+D41)/2)</f>
-        <v>4.4914669524579081E-3</v>
+        <v>1.3763453415682901E-2</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="1">
         <f>(F41-F38)/((F38+F41)/2)</f>
-        <v>-8.6022931608279558E-4</v>
+        <v>2.206180451764761E-2</v>
       </c>
       <c r="G43" s="1">
         <f>(G41-G38)/((G38+G41)/2)</f>
-        <v>6.7632579717417643E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.0874635008166545E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="20" thickBot="1">
       <c r="B44" s="7" t="s">
         <v>14</v>
       </c>
@@ -1469,7 +1474,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="15" thickTop="1">
       <c r="B45" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7">
       <c r="B46">
         <v>0</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>2.621</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47">
         <v>1</v>
       </c>
@@ -1529,7 +1534,7 @@
         <v>2.4895</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48">
         <v>2</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>2.359</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>3</v>
       </c>
@@ -1569,7 +1574,7 @@
         <v>2.2284999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>2</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>2.3645</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1609,7 +1614,7 @@
         <v>2.5005000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1629,7 +1634,7 @@
         <v>2.621</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>-1</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>2.7515000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>-2</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>2.8820000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>-3</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>3.0145</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>-2</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>2.8835000000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57">
         <v>-1</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>2.7534999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1749,7 +1754,7 @@
         <v>2.6225000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>0.13031135806722821</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="4"/>
       <c r="C60" t="s">
         <v>2</v>
@@ -1789,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="4" t="s">
         <v>4</v>
       </c>
@@ -1813,72 +1818,72 @@
         <v>0.99983497657653275</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C62">
-        <v>-0.12548418972332015</v>
+        <v>-0.13370870535714285</v>
       </c>
       <c r="D62">
-        <v>0.12608102115425956</v>
+        <v>0.13209961629671843</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F62">
-        <v>-0.40648800000000013</v>
+        <v>-0.13216517857142857</v>
       </c>
       <c r="G62">
-        <v>0.40890683932975469</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.13172485577531828</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C63">
         <f>C59-C62</f>
-        <v>-6.2394944872061764E-3</v>
+        <v>1.985021146616528E-3</v>
       </c>
       <c r="D63">
         <f>D59-D62</f>
-        <v>4.8978838353669618E-3</v>
+        <v>-1.1207113070919039E-3</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F63">
         <f>F59-F62</f>
-        <v>0.27604063157894748</v>
+        <v>1.7178101503759202E-3</v>
       </c>
       <c r="G63">
         <f>G59-G62</f>
-        <v>-0.27859548126252648</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-1.4134977080900724E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1">
         <f>(C62-C59)/((C59+C62)/2)</f>
-        <v>-4.8517134345669108E-2</v>
+        <v>1.4956887136868937E-2</v>
       </c>
       <c r="D64" s="1">
         <f>(D62-D59)/((D59+D62)/2)</f>
-        <v>-3.8106941901363753E-2</v>
+        <v>8.5199757214088779E-3</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="1">
         <f>(F62-F59)/((F59+F62)/2)</f>
-        <v>1.0282080407207692</v>
+        <v>1.308246822209224E-2</v>
       </c>
       <c r="G64" s="1">
         <f>(G62-G59)/((G59+G62)/2)</f>
-        <v>1.0333311546509958</v>
+        <v>1.0788567636223146E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1896,12 @@
     <mergeCell ref="E44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1903,15 +1913,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1931,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1962,7 @@
         <v>-7.5579999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>-7.3860000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +1996,7 @@
         <v>-7.4530000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>-7.5259999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>-7.2960000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2044,6 +2054,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2053,8 +2068,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>